--- a/data/trans_orig/iP30KDA1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP30KDA1_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C7D518F-B9FF-4D3C-B159-B9AA4824BFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A99F0AA0-CB2C-4330-8928-8C1B164EEE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A6A80E4A-70AE-4934-9D29-AF5C812D5B21}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{0B4D741D-A1B6-42E6-AAD8-DA52DEF6A69A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -41,10 +41,10 @@
     <t>Menores según si toman una fruta o un zumo natural todos los días en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
   </si>
   <si>
     <t>94,21%</t>
   </si>
   <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
   </si>
   <si>
     <t>5,79%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,220 +134,220 @@
     <t>3-7</t>
   </si>
   <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
   </si>
   <si>
     <t>89,61%</t>
   </si>
   <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
   </si>
   <si>
     <t>10,39%</t>
   </si>
   <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -762,7 +762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2DC62B-048E-4429-9100-CA87155F7E2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA1ED19-27AF-45A7-9A2B-07198CE336C8}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -880,10 +880,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D4" s="7">
-        <v>39853</v>
+        <v>44595</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -895,10 +895,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I4" s="7">
-        <v>44403</v>
+        <v>41872</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -913,7 +913,7 @@
         <v>154</v>
       </c>
       <c r="N4" s="7">
-        <v>84256</v>
+        <v>86466</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -931,10 +931,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>3291</v>
+        <v>1900</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -946,10 +946,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>1890</v>
+        <v>3413</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -964,7 +964,7 @@
         <v>10</v>
       </c>
       <c r="N5" s="7">
-        <v>5180</v>
+        <v>5313</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -982,25 +982,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>83</v>
+      </c>
+      <c r="D6" s="7">
+        <v>46495</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>81</v>
       </c>
-      <c r="D6" s="7">
-        <v>43144</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>83</v>
-      </c>
       <c r="I6" s="7">
-        <v>46293</v>
+        <v>45285</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1015,7 +1015,7 @@
         <v>164</v>
       </c>
       <c r="N6" s="7">
-        <v>89436</v>
+        <v>91779</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1035,10 +1035,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="D7" s="7">
-        <v>161278</v>
+        <v>145408</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1050,10 +1050,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="I7" s="7">
-        <v>144908</v>
+        <v>167936</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1068,7 +1068,7 @@
         <v>491</v>
       </c>
       <c r="N7" s="7">
-        <v>306186</v>
+        <v>313345</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1089,7 +1089,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="7">
-        <v>13439</v>
+        <v>13891</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1104,7 +1104,7 @@
         <v>21</v>
       </c>
       <c r="I8" s="7">
-        <v>13857</v>
+        <v>14023</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1119,7 +1119,7 @@
         <v>42</v>
       </c>
       <c r="N8" s="7">
-        <v>27296</v>
+        <v>27914</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1137,25 +1137,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>258</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>275</v>
       </c>
-      <c r="D9" s="7">
-        <v>174717</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>258</v>
-      </c>
       <c r="I9" s="7">
-        <v>158765</v>
+        <v>181959</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1170,7 +1170,7 @@
         <v>533</v>
       </c>
       <c r="N9" s="7">
-        <v>333482</v>
+        <v>341259</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1190,10 +1190,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D10" s="7">
-        <v>183691</v>
+        <v>157901</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1205,10 +1205,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="I10" s="7">
-        <v>160949</v>
+        <v>192894</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1223,7 +1223,7 @@
         <v>436</v>
       </c>
       <c r="N10" s="7">
-        <v>344641</v>
+        <v>350796</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1244,7 +1244,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="7">
-        <v>18787</v>
+        <v>15171</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1259,7 +1259,7 @@
         <v>20</v>
       </c>
       <c r="I11" s="7">
-        <v>15164</v>
+        <v>19596</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1274,7 +1274,7 @@
         <v>40</v>
       </c>
       <c r="N11" s="7">
-        <v>33950</v>
+        <v>34767</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1292,25 +1292,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>233</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>243</v>
       </c>
-      <c r="D12" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>233</v>
-      </c>
       <c r="I12" s="7">
-        <v>176113</v>
+        <v>212490</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1325,7 +1325,7 @@
         <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>378591</v>
+        <v>385563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1345,10 +1345,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D13" s="7">
-        <v>253669</v>
+        <v>247944</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1360,10 +1360,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I13" s="7">
-        <v>232483</v>
+        <v>264623</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1378,7 +1378,7 @@
         <v>603</v>
       </c>
       <c r="N13" s="7">
-        <v>486153</v>
+        <v>512567</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1396,10 +1396,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="7">
-        <v>35325</v>
+        <v>26323</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1411,10 +1411,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I14" s="7">
-        <v>26955</v>
+        <v>40376</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1429,7 +1429,7 @@
         <v>79</v>
       </c>
       <c r="N14" s="7">
-        <v>62280</v>
+        <v>66699</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1450,7 +1450,7 @@
         <v>341</v>
       </c>
       <c r="D15" s="7">
-        <v>288994</v>
+        <v>274267</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1465,7 +1465,7 @@
         <v>341</v>
       </c>
       <c r="I15" s="7">
-        <v>259438</v>
+        <v>304999</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1480,7 +1480,7 @@
         <v>682</v>
       </c>
       <c r="N15" s="7">
-        <v>548433</v>
+        <v>579266</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1500,46 +1500,46 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>831</v>
+      </c>
+      <c r="D16" s="7">
+        <v>595849</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="7">
         <v>853</v>
       </c>
-      <c r="D16" s="7">
-        <v>638492</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="I16" s="7">
+        <v>667324</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="7">
-        <v>831</v>
-      </c>
-      <c r="I16" s="7">
-        <v>582744</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>1684</v>
       </c>
       <c r="N16" s="7">
-        <v>1221236</v>
+        <v>1263174</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>95</v>
@@ -1551,49 +1551,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>84</v>
+      </c>
+      <c r="D17" s="7">
+        <v>57285</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="7">
         <v>87</v>
       </c>
-      <c r="D17" s="7">
-        <v>70841</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="I17" s="7">
+        <v>77409</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H17" s="7">
-        <v>84</v>
-      </c>
-      <c r="I17" s="7">
-        <v>57865</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>171</v>
       </c>
       <c r="N17" s="7">
-        <v>128706</v>
+        <v>134693</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1602,25 +1602,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>915</v>
+      </c>
+      <c r="D18" s="7">
+        <v>653134</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>940</v>
       </c>
-      <c r="D18" s="7">
-        <v>709333</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>915</v>
-      </c>
       <c r="I18" s="7">
-        <v>640609</v>
+        <v>744733</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1635,7 +1635,7 @@
         <v>1855</v>
       </c>
       <c r="N18" s="7">
-        <v>1349942</v>
+        <v>1397867</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
